--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -191,16 +191,10 @@
     <t>Skipped - The New and the Old Bandwidth both are the same in the excel sheet</t>
   </si>
   <si>
-    <t>Record Processed Successfully</t>
-  </si>
-  <si>
     <t>Skipped - The Old Bandwidth (in excel sheet) and Current Bandwith are different.</t>
   </si>
   <si>
     <t>C:\Import\BNET\Customer Migration.xlsx</t>
-  </si>
-  <si>
-    <t>Modified</t>
   </si>
   <si>
     <t>Record_Status</t>
@@ -219,7 +213,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -236,12 +230,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -267,11 +255,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -553,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z996"/>
+  <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -644,31 +631,31 @@
         <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
         <v>56</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -679,14 +666,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" t="s">
-        <v>63</v>
-      </c>
-    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1671,7 +1651,6 @@
     <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1"/>
